--- a/2024 Annexure Sample.xlsx
+++ b/2024 Annexure Sample.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\111 FORMAT for Audit\Support 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B107E29A-9C26-4873-8DE3-C3DAC7028FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A4A57-1574-486C-9C92-1F84BB671939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="P Cash 01" sheetId="4" r:id="rId1"/>
+    <sheet name="pCash 1" sheetId="4" r:id="rId1"/>
     <sheet name="Susp 2" sheetId="5" r:id="rId2"/>
-    <sheet name="EXP_head" sheetId="28" r:id="rId3"/>
-    <sheet name="Exp- Mkt-Hu 3" sheetId="19" r:id="rId4"/>
-    <sheet name="Exp- Mkt-V 4" sheetId="20" r:id="rId5"/>
-    <sheet name="Exp- Dis 5" sheetId="18" r:id="rId6"/>
-    <sheet name="OS 6" sheetId="10" r:id="rId7"/>
-    <sheet name="Cat OS 7" sheetId="8" r:id="rId8"/>
-    <sheet name="Aging 8" sheetId="9" r:id="rId9"/>
+    <sheet name="x-Mkt-Hu 3" sheetId="19" r:id="rId3"/>
+    <sheet name="x-Mkt-V 4" sheetId="20" r:id="rId4"/>
+    <sheet name="x- Dis 5" sheetId="18" r:id="rId5"/>
+    <sheet name="OS 6" sheetId="10" r:id="rId6"/>
+    <sheet name="Cat OS 7" sheetId="8" r:id="rId7"/>
+    <sheet name="Aging 8" sheetId="9" r:id="rId8"/>
+    <sheet name="x_head" sheetId="28" r:id="rId9"/>
     <sheet name="FG-9" sheetId="21" r:id="rId10"/>
     <sheet name="FS-14" sheetId="23" r:id="rId11"/>
     <sheet name="PM-15" sheetId="22" r:id="rId12"/>
@@ -29,11 +29,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Susp 2'!$A$1:$H$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'OS 6'!$A$1:$D$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'OS 6'!$A$1:$D$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Susp 2'!$A$1:$H$58</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Exp- Dis 5'!$16:$16</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Exp- Mkt-Hu 3'!$16:$16</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Exp- Mkt-V 4'!$16:$16</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'x- Dis 5'!$16:$16</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'x-Mkt-Hu 3'!$16:$16</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'x-Mkt-V 4'!$16:$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>Human</t>
   </si>
@@ -362,13 +362,16 @@
     <t>For the period from 12.03.23 to 03.04.24</t>
   </si>
   <si>
-    <t>1. Comparative Statement of Sales &amp; Marketing Expenditure for Human Category</t>
-  </si>
-  <si>
-    <t>2. Comparative Statement of Sales &amp; Marketing Expenditure for Veterinary Category</t>
-  </si>
-  <si>
-    <t>3. Comparative Statement of Distribution Expenditure</t>
+    <t>XXXX Depot</t>
+  </si>
+  <si>
+    <t>Comparative Statement of Sales &amp; Marketing Expenditure of Human Category for</t>
+  </si>
+  <si>
+    <t>Comparative Statement of Sales &amp; Marketing Expenditure of Veterinary Category for</t>
+  </si>
+  <si>
+    <t>Comparative Statement of Distribution Expenditure</t>
   </si>
 </sst>
 </file>
@@ -388,6 +391,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -563,12 +572,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Comic Sans MS"/>
-      <family val="4"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -703,367 +706,371 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1743,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,51 +1766,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
+      <c r="A3" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
@@ -1974,8 +1981,8 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1988,44 +1995,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
     </row>
     <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
     </row>
     <row r="6" spans="1:4" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
@@ -2395,46 +2402,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="str">
+      <c r="A3" s="130" t="str">
         <f>'FG-9'!A3:D3</f>
         <v>Rangpur Depot</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="str">
+      <c r="A5" s="129" t="str">
         <f>'FG-9'!A5:D5</f>
         <v>For the period from 12.03.23 to 03.04.24</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
     </row>
     <row r="6" spans="1:7" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
@@ -2769,51 +2776,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="str">
+      <c r="A3" s="130" t="str">
         <f>'FG-9'!A3:D3</f>
         <v>Rangpur Depot</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
     </row>
     <row r="5" spans="1:5" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="str">
+      <c r="A5" s="129" t="str">
         <f>'FG-9'!A5:D5</f>
         <v>For the period from 12.03.23 to 03.04.24</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
     </row>
     <row r="6" spans="1:5" s="76" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
@@ -3183,7 +3190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DA3B4D-B51A-4E7A-B374-6A5E8D29C2AB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -3197,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,66 +3222,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="str">
-        <f>'P Cash 01'!A3</f>
-        <v>Rangpur Depot</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+      <c r="A3" s="119" t="str">
+        <f>'pCash 1'!A3</f>
+        <v>XXXX Depot</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="str">
-        <f>"As on "&amp;RIGHT('P Cash 01'!A5,8)</f>
+      <c r="A5" s="119" t="str">
+        <f>"As on "&amp;RIGHT('pCash 1'!A5,8)</f>
         <v>As on 11.02.24</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="102">
@@ -3969,13 +3976,13 @@
       <c r="H57" s="104"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="117" t="s">
+      <c r="A58" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
       <c r="F58" s="95">
         <f>SUM(F8:F57)</f>
         <v>0</v>
@@ -4008,36 +4015,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA1115-8AC0-4276-896A-96A31513EACA}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A68"/>
   <sheetViews>
@@ -4125,7 +4102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:A57"/>
   <sheetViews>
@@ -4202,12 +4179,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4311,12 +4288,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4329,46 +4306,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="2" spans="1:6" s="36" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
     </row>
     <row r="3" spans="1:6" s="36" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="str">
-        <f>'P Cash 01'!A3</f>
-        <v>Rangpur Depot</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
+      <c r="A3" s="119" t="str">
+        <f>'pCash 1'!A3</f>
+        <v>XXXX Depot</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
     </row>
     <row r="4" spans="1:6" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="str">
+      <c r="A5" s="121" t="str">
         <f>'Susp 2'!A5</f>
         <v>As on 11.02.24</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
     </row>
     <row r="6" spans="1:6" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
@@ -4394,7 +4371,7 @@
     </row>
     <row r="8" spans="1:6" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="108" t="str">
-        <f>'P Cash 01'!A8</f>
+        <f>'pCash 1'!A8</f>
         <v xml:space="preserve">Opening Balance as on 17.03.23 </v>
       </c>
       <c r="B8" s="88"/>
@@ -4740,7 +4717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -4761,61 +4738,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="126" t="str">
-        <f>'P Cash 01'!A3</f>
-        <v>Rangpur Depot</v>
-      </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="A3" s="125" t="str">
+        <f>'pCash 1'!A3</f>
+        <v>XXXX Depot</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="str">
+      <c r="A5" s="124" t="str">
         <f>'OS 6'!A5</f>
         <v>As on 11.02.24</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
     </row>
     <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -5116,12 +5093,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5137,61 +5114,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="str">
-        <f>'P Cash 01'!A3</f>
-        <v>Rangpur Depot</v>
-      </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
+      <c r="A3" s="124" t="str">
+        <f>'pCash 1'!A3</f>
+        <v>XXXX Depot</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="str">
+      <c r="A5" s="126" t="str">
         <f>'OS 6'!A5</f>
         <v>As on 11.02.24</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
     </row>
     <row r="6" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -5460,4 +5437,49 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA1115-8AC0-4276-896A-96A31513EACA}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" style="133" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="132"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="131">
+        <v>1</v>
+      </c>
+      <c r="B1" s="132" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="131">
+        <v>2</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="131">
+        <v>3</v>
+      </c>
+      <c r="B3" s="132" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>